--- a/temp_doc/Master MAPEL UJIAN.xlsx
+++ b/temp_doc/Master MAPEL UJIAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88471FA2-64F8-254F-9077-383DDB483A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ADF077-A7C7-214F-84DA-951F143145C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1A698AD-5116-E841-8A79-FD4D345D1A82}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{F1A698AD-5116-E841-8A79-FD4D345D1A82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="208">
   <si>
     <t>category</t>
   </si>
@@ -131,6 +131,105 @@
     <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XI AKL 2)</t>
   </si>
   <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X AKL 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X AKL 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X AKL 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X AKL 1)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X AKL 1)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X AKL 1)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X AKL 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X AKL 1)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X AKL 1)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X AKL 1)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR AKL (X AKL 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X AKL 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X AKL 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X AKL 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X AKL 2)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X AKL 2)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X AKL 2)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X AKL 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X AKL 2)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X AKL 2)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X AKL 2)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR AKL (X AKL 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X PM)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X PM)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X PM)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X PM)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X PM)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X PM)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X PM)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X PM)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X PM)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X PM)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR PM (X PM)</t>
+  </si>
+  <si>
     <t>PENDIDIKAN AGAMA ISLAM (XI PM)</t>
   </si>
   <si>
@@ -168,13 +267,406 @@
   </si>
   <si>
     <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XI PM)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR MPLB (X MPLB 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR MPLB (X MPLB 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS  (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>PJOK (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>OTK KEPEGAWAIAN (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>OTK KEUANGAN (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>OTK SARANA DANPRASARANA (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>OTK HUMAS DANKEPROTOKOLAN (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XI MPLB 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS  (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>PJOK (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>OTK KEPEGAWAIAN (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>OTK KEUANGAN (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>OTK SARANA DANPRASARANA (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>OTK HUMAS DANKEPROTOKOLAN (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XI MPLB 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR TJKT (X TJKT 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR TJKT (X TJKT 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR TJKT (X TJKT 3)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS  (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>PJOK (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI JARINGAN BERBASIS LUAS (WAN) (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI INFRASTRUKTUR JARINGAN (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI SISTEM JARINGAN (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI LAYANAN JARINGAN (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XI TJKT 1)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS  (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>PJOK (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI JARINGAN BERBASIS LUAS (WAN) (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI INFRASTRUKTUR JARINGAN (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI SISTEM JARINGAN (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI LAYANAN JARINGAN (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XI TJKT 2)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS  (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>PJOK (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI JARINGAN BERBASIS LUAS (WAN) (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI INFRASTRUKTUR JARINGAN (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI SISTEM JARINGAN (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI LAYANAN JARINGAN (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XI TJKT 3)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA ISLAM (X DKV)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN AGAMA KRISTEN (X DKV)</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN (X DKV)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (X DKV)</t>
+  </si>
+  <si>
+    <t>SEJARAH INDONESIA (X DKV)</t>
+  </si>
+  <si>
+    <t>BAHASA MANDARIN (X DKV)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (X DKV)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (X DKV)</t>
+  </si>
+  <si>
+    <t>INFORMATIKA (X DKV)</t>
+  </si>
+  <si>
+    <t>PROJEK ILMU PENGETAHUAN ALAM DAN SOSIAL (X DKV)</t>
+  </si>
+  <si>
+    <t>DASAR DASAR DKV (X DKV)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,18 +677,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -236,18 +716,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -563,17 +1034,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6C5FE8-5267-5D4B-861F-CC1E689603FC}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="79.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -589,453 +1059,2257 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>122</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>31</v>
+        <v>142</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>122</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>32</v>
+        <v>142</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>122</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>122</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>34</v>
+        <v>142</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>122</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>35</v>
+        <v>142</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>122</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>122</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>37</v>
+        <v>142</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>122</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>38</v>
+        <v>142</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>122</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>39</v>
+        <v>143</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>122</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>40</v>
+        <v>143</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>122</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>41</v>
+        <v>143</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>122</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>42</v>
+        <v>143</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>143</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>143</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>143</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>143</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>143</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>143</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>143</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>143</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>144</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>144</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>144</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>144</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>144</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>145</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>145</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>145</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>145</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>145</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>145</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>145</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>145</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>145</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>145</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>145</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>146</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>146</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>146</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>146</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>146</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>146</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>147</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>147</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>147</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>147</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>147</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>147</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>147</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>147</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>148</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>148</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>148</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>148</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>148</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>148</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>148</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>148</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>148</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>149</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>149</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>149</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>149</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>149</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>149</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>149</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>149</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>149</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>149</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>149</v>
+      </c>
+      <c r="B121" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>43</v>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>149</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>149</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>150</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>150</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>150</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>150</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>150</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>150</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>150</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>150</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>150</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>150</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>151</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>151</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>151</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>151</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>151</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>151</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>151</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>151</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>151</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>151</v>
+      </c>
+      <c r="B145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>152</v>
+      </c>
+      <c r="B146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>152</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>153</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>153</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>153</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>153</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>153</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>153</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>153</v>
+      </c>
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>153</v>
+      </c>
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>153</v>
+      </c>
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>153</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>153</v>
+      </c>
+      <c r="B167" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>153</v>
+      </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>153</v>
+      </c>
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>154</v>
+      </c>
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>154</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>154</v>
+      </c>
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>154</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>154</v>
+      </c>
+      <c r="B174" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>154</v>
+      </c>
+      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>154</v>
+      </c>
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>154</v>
+      </c>
+      <c r="B177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>154</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>154</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>154</v>
+      </c>
+      <c r="B180" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>154</v>
+      </c>
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>154</v>
+      </c>
+      <c r="B182" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>155</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>155</v>
+      </c>
+      <c r="B184" t="s">
+        <v>185</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>155</v>
+      </c>
+      <c r="B185" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>155</v>
+      </c>
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>155</v>
+      </c>
+      <c r="B187" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>155</v>
+      </c>
+      <c r="B188" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>155</v>
+      </c>
+      <c r="B189" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>155</v>
+      </c>
+      <c r="B190" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>155</v>
+      </c>
+      <c r="B191" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>155</v>
+      </c>
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>155</v>
+      </c>
+      <c r="B193" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>155</v>
+      </c>
+      <c r="B194" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>155</v>
+      </c>
+      <c r="B195" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>156</v>
+      </c>
+      <c r="B196" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>156</v>
+      </c>
+      <c r="B197" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>156</v>
+      </c>
+      <c r="B198" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>156</v>
+      </c>
+      <c r="B199" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>156</v>
+      </c>
+      <c r="B200" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>156</v>
+      </c>
+      <c r="B201" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>156</v>
+      </c>
+      <c r="B202" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>156</v>
+      </c>
+      <c r="B203" t="s">
+        <v>204</v>
+      </c>
+      <c r="C203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>156</v>
+      </c>
+      <c r="B204" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>156</v>
+      </c>
+      <c r="B205" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>156</v>
+      </c>
+      <c r="B206" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
